--- a/Tests/Validation/Wheat/FAR/Observed/FAR NEV FRO WB23-01.xlsx
+++ b/Tests/Validation/Wheat/FAR/Observed/FAR NEV FRO WB23-01.xlsx
@@ -20,218 +20,218 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="70">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Rep</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>TOS</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>Crop</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Cultivar</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt.err</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Population</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Population.err</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation.err</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI.err</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height.err</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage.err</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Vixen</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01Def1TOS2CvVixen</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS2CvVixen</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Rockstar</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS3CvRockstar</t>
-  </si>
-  <si>
-    <t>Scepter</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01Def2TOS1CvScepter</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01Def1TOS1CvVixen</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01Def1TOS1CvScepter</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS1CvVixen</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS1CvRockstar</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS3CvScepter</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS3CvBennett</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01Def2TOS2CvVixen</t>
-  </si>
-  <si>
-    <t>Illabo</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS2CvIllabo</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS3CvVixen</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS3CvIllabo</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS2CvRockstar</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS2CvBennett</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS1CvIllabo</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS1CvBennett</t>
-  </si>
-  <si>
-    <t>Denison</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS1CvDenison</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01Def2TOS1CvVixen</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS1CvScepter</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS2CvScepter</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS2CvDenison</t>
-  </si>
-  <si>
-    <t>FAR NEV FRO WB23-01DefControlTOS3CvDenison</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="70">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Experiment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Def</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Cultivar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Population</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Population.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01Def1TOS2CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS2CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rockstar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS3CvRockstar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01Def2TOS1CvScepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01Def1TOS1CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01Def1TOS1CvScepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS1CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS1CvRockstar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS3CvScepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS3CvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01Def2TOS2CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Illabo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS2CvIllabo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS3CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS3CvIllabo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS2CvRockstar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS2CvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS1CvIllabo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS1CvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Denison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS1CvDenison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01Def2TOS1CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS1CvScepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS2CvScepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS2CvDenison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR NEV FRO WB23-01DefControlTOS3CvDenison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
